--- a/biology/Zoologie/Erythraeidae/Erythraeidae.xlsx
+++ b/biology/Zoologie/Erythraeidae/Erythraeidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Erythraeidae sont une famille d' acariens appartenant aux Trombidiformes. Les formes larvaires de ces acariens parasitent divers autres arthropodes, par exemple des opilions, mais les adultes sont des prédateurs libres. 
 </t>
@@ -511,11 +523,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces acariens ovales sont plutôt gros, généralement de couleur rougeâtre et densément poilus. Les pattes, surtout la première et la quatrième paire, sont longues et adaptées à la course. Ils ont une ou deux paires d'yeux et se distinguent au microscope des familles apparentées par la présence d'une seule griffe sur le tibia du palpe.
 Les larves creusent un trou dans la cuticule de l'hôte et utilisent un stylostome, qui agit comme une paille, pour boire les fluides corporels dissous dans les tissus.
-Les larves de deux espèces décrites de Leptus se nourrissent d'abeilles : Leptus ariel vit sur l'abeille domestique européenne au Guatemala, et Leptus monteithi est un parasite d'une espèce de Leioproctus (Colletidae) en Tasmanie[1].
+Les larves de deux espèces décrites de Leptus se nourrissent d'abeilles : Leptus ariel vit sur l'abeille domestique européenne au Guatemala, et Leptus monteithi est un parasite d'une espèce de Leioproctus (Colletidae) en Tasmanie.
 Dans la nature, on distingue notamment les Erythraeidae des très proches Trombidiidae par le fait que les Erythraeidae sont adaptés à la course et se déplacent très rapidement, contrairement à leurs lents cousins. 
 	Larve sur la patte d'un opilion
 </t>
@@ -546,9 +560,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (2 juin 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (2 juin 2024) :
 Abrolophus Berlese, 1891
 Andrevella Southcott, 1961
 † Arythaena Menge, 1854
@@ -662,10 +678,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide de ce taxon est Erythraeidae[2].
-Erythraeidae a pour synonyme[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide de ce taxon est Erythraeidae.
+Erythraeidae a pour synonyme :
 Erythreidae</t>
         </is>
       </c>
